--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -807,6 +807,26 @@
   </si>
   <si>
     <t>2. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 휘두르기 이펙트는 반원 안에 선이 나오는 이펙트를 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 휘두르기 이펙트는 스킬1에서만 사용되며 공격과 함께 켜지고 공격이 끝나면 꺼짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 찌르기 이펙트는 무기 앞에서 출력됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 찌르기 이펙트는 준비모션후 찌르기 모션이 시작될때 같이 출력됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이펙트는 무기에 고정시켜 출력함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1268,13 +1288,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1328,13 +1348,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1569,13 +1589,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1626,13 +1646,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1686,13 +1706,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1743,13 +1763,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1800,13 +1820,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1856,13 +1876,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1910,13 +1930,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1967,13 +1987,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2024,13 +2044,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2080,13 +2100,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2134,13 +2154,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2191,13 +2211,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2707,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P113"/>
+  <dimension ref="B2:P112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3191,7 +3211,28 @@
         <v>80</v>
       </c>
     </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
       <c r="L53" s="9" t="s">
         <v>27</v>
       </c>
@@ -3209,6 +3250,15 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="20"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
       <c r="L54" s="8" t="s">
         <v>32</v>
       </c>
@@ -3224,17 +3274,15 @@
       <c r="P54" s="8"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="12"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
       <c r="L55" s="8" t="s">
         <v>36</v>
       </c>
@@ -3259,6 +3307,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
+      <c r="K56" s="14"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
@@ -3275,6 +3324,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
+      <c r="K57" s="14"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
@@ -3311,6 +3361,9 @@
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
       <c r="K60" s="14"/>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
@@ -3335,9 +3388,6 @@
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
       <c r="K62" s="14"/>
-      <c r="M62" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
@@ -3400,128 +3450,113 @@
       <c r="K67" s="14"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="20"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="14"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="20"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="14"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="21"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="14"/>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>39</v>
+      <c r="B73" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L79" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B80" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="12"/>
+      <c r="L80" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M79" s="10" t="s">
+      <c r="M80" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N79" s="10" t="s">
+      <c r="N80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O79" s="10" t="s">
+      <c r="O80" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P79" s="10" t="s">
+      <c r="P80" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L80" s="8" t="s">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B81" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="15"/>
+      <c r="L81" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="M81" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N80" s="8">
+      <c r="N81" s="8">
         <v>10</v>
       </c>
-      <c r="O80" s="8" t="s">
+      <c r="O81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="12"/>
-      <c r="L81" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N81" s="8">
-        <v>20</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="P81" s="8"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -3531,16 +3566,16 @@
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
       <c r="L82" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N82" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P82" s="8"/>
     </row>
@@ -3554,10 +3589,18 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
+      <c r="L83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N83" s="8">
+        <v>1</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="P83" s="8"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
@@ -3570,6 +3613,11 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="20"/>
@@ -3581,6 +3629,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
+      <c r="K85" s="14"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="20"/>
@@ -3691,47 +3740,47 @@
       <c r="K94" s="14"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="20"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="18"/>
       <c r="K95" s="14"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="21"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="14"/>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="14"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="12"/>
+      <c r="B98" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="15"/>
       <c r="K98" s="14"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="B99" s="20"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -3887,28 +3936,16 @@
       <c r="K111" s="14"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="20"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="18"/>
       <c r="K112" s="14"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="21"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -755,78 +755,114 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  - 스킬1[휘두르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬2[찌르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+  </si>
+  <si>
+    <t>SkillAtk 1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격후 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 총 모션 시간 2~2.5초 [애니메이터와 추가 협의 할것]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬2의 공격 거리는 스킬1의 2배로 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 스킬 공격범위는 무기를 기준으로  함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬1의 사거리 안이라도 스킬2의 쿨타임이 0라면 스킬2사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 휘두르기 이펙트는 반원 안에 선이 나오는 이펙트를 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 휘두르기 이펙트는 스킬1에서만 사용되며 공격과 함께 켜지고 공격이 끝나면 꺼짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 찌르기 이펙트는 무기 앞에서 출력됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 찌르기 이펙트는 준비모션후 찌르기 모션이 시작될때 같이 출력됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이펙트는 무기에 고정시켜 출력함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하기 얼마전에 이펙트를 출력할지 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  - 총 모션 시간 1.5~2초 [애니메이터와 추가 협의 할것]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 스킬1[휘두르기]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스킬2[찌르기]</t>
+    <t xml:space="preserve">  - 전조 동작 전부터 땅에 범위 이펙트를 표시해주고 전조 동작후 공격함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 전조 동작을 통해 공격을 알리고 공격을 하며 전조동작을 통해 공격을 인식시키고 회피를 가능하게함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬을 사용하는 도중에 피격 당할 시 히트모션을 출력하고 스킬을 캔슬함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터의 HP가 0이하가 될시  사망모션을 출력함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 공격거리 안에 유저가 있을 시 스킬을 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkEffectDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 공격 범위 이펙트는 공격 모션 전에 먼저 사용되면 AtkEffectDelay값만큼 먼서 사용된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실수형</t>
-  </si>
-  <si>
-    <t>SkillAtk 1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격후 대기시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 총 모션 시간 2~2.5초 [애니메이터와 추가 협의 할것]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스킬2의 공격 거리는 스킬1의 2배로 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 모든 스킬 공격범위는 무기를 기준으로  함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스킬1의 사거리 안이라도 스킬2의 쿨타임이 0라면 스킬2사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 휘두르기 이펙트는 반원 안에 선이 나오는 이펙트를 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 휘두르기 이펙트는 스킬1에서만 사용되며 공격과 함께 켜지고 공격이 끝나면 꺼짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 찌르기 이펙트는 무기 앞에서 출력됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 찌르기 이펙트는 준비모션후 찌르기 모션이 시작될때 같이 출력됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 이펙트는 무기에 고정시켜 출력함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1228,13 +1264,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1288,13 +1324,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1348,13 +1384,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1415,13 +1451,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1472,13 +1508,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1532,13 +1568,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1589,13 +1625,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1646,13 +1682,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1706,13 +1742,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1763,13 +1799,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1820,13 +1856,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1876,13 +1912,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1930,13 +1966,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1987,13 +2023,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2044,13 +2080,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2100,13 +2136,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2154,13 +2190,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2211,13 +2247,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2705,17 +2741,17 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2727,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P112"/>
+  <dimension ref="B2:P119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2831,7 +2867,7 @@
         <v>48</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>42</v>
@@ -2849,7 +2885,7 @@
         <v>49</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>43</v>
@@ -2864,13 +2900,13 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="8">
         <v>1</v>
@@ -2912,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P17" s="4"/>
     </row>
@@ -2936,7 +2972,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>57</v>
@@ -2953,6 +2989,9 @@
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
       <c r="L20" s="8" t="s">
         <v>58</v>
       </c>
@@ -2963,13 +3002,13 @@
         <v>5</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>14</v>
+      <c r="B21" t="s">
+        <v>104</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>59</v>
@@ -2987,65 +3026,51 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="14"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
@@ -3057,7 +3082,6 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
@@ -3069,7 +3093,6 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
@@ -3180,163 +3203,158 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="14"/>
     </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="14"/>
+    </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="22" t="s">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="8">
+        <v>5</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="8">
+        <v>1</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="12"/>
-      <c r="L53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="20"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="L54" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N54" s="8">
-        <v>5</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="20"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="L55" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55" s="8">
-        <v>1</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P55" s="8"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="20"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="20"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="14"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
+      <c r="L58" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N58" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P58" s="8"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
@@ -3348,7 +3366,6 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="14"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
@@ -3360,10 +3377,6 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="14"/>
-      <c r="M60" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
@@ -3388,6 +3401,9 @@
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
       <c r="K62" s="14"/>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
@@ -3413,7 +3429,7 @@
       <c r="J64" s="15"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -3425,7 +3441,7 @@
       <c r="J65" s="15"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="20"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -3437,7 +3453,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="20"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -3449,214 +3465,198 @@
       <c r="J67" s="15"/>
       <c r="K67" s="14"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="21"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="18"/>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="20"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
       <c r="K68" s="14"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="20"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="20"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="20"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="20"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="21"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="22" t="s">
+      <c r="L84" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P84" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L85" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N85" s="8">
+        <v>10</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L86" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N86" s="8">
+        <v>20</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B87" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="12"/>
-      <c r="L80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O80" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P80" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="13" t="s">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="12"/>
+      <c r="L87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N87" s="8">
+        <v>1</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P87" s="8"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B88" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="L81" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N81" s="8">
-        <v>10</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="20"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="L82" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N82" s="8">
-        <v>20</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P82" s="8"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" s="20"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="L83" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N83" s="8">
-        <v>1</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P83" s="8"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" s="20"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B85" s="20"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="14"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B86" s="20"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="14"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B87" s="20"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="14"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="20"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -3665,7 +3665,19 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="14"/>
+      <c r="L88" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N88" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P88" s="8"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="20"/>
@@ -3677,7 +3689,6 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="14"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
@@ -3689,7 +3700,6 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="14"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
@@ -3701,7 +3711,6 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="14"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="20"/>
@@ -3740,35 +3749,43 @@
       <c r="K94" s="14"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="21"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="18"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="15"/>
       <c r="K95" s="14"/>
     </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B96" s="20"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="14"/>
+    </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="12"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="15"/>
       <c r="K97" s="14"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="B98" s="20"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -3816,43 +3833,35 @@
       <c r="K101" s="14"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="20"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="18"/>
       <c r="K102" s="14"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="20"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="14"/>
-    </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="20"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
+      <c r="B104" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="12"/>
       <c r="K104" s="14"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="20"/>
+      <c r="B105" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -3936,16 +3945,100 @@
       <c r="K111" s="14"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="21"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="18"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="15"/>
       <c r="K112" s="14"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="20"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="14"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="20"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="14"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="20"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="14"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="20"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="14"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117" s="20"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="14"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B118" s="20"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="14"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="21"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3970,7 +4063,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -862,7 +862,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실수형</t>
+    <t>문서 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1156,13 +1156,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,6 +1278,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1264,13 +1319,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1324,13 +1379,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1384,13 +1439,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1451,13 +1506,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1508,13 +1563,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1568,13 +1623,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1625,13 +1680,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1682,13 +1737,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1742,13 +1797,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1799,13 +1854,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1856,13 +1911,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1912,13 +1967,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1966,13 +2021,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2023,13 +2078,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2080,13 +2135,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2136,13 +2191,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2190,13 +2245,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2247,13 +2302,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2615,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2671,9 +2726,15 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="23">
+        <v>43689</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -2763,601 +2824,519 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P119"/>
+  <dimension ref="B2:M149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="12" max="12" width="18.625" customWidth="1"/>
     <col min="13" max="13" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="8" t="s">
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L8" s="8" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="C12" s="28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="8">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="8">
+        <v>100</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="8">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="8">
+        <v>7</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="8">
-        <v>10</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="8">
-        <v>20</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="8">
-        <v>100</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="8">
-        <v>10</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="8">
-        <v>5</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="8">
-        <v>5</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="8">
-        <v>7</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N55" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O55" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P55" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N56" s="8">
-        <v>5</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L57" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N57" s="8">
-        <v>1</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="12"/>
-      <c r="L58" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N58" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="20"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="13"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -3366,9 +3345,10 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="20"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="13"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -3377,9 +3357,10 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -3390,8 +3371,8 @@
       <c r="J61" s="15"/>
       <c r="K61" s="14"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="20"/>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -3401,12 +3382,9 @@
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
       <c r="K62" s="14"/>
-      <c r="M62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="20"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -3417,8 +3395,8 @@
       <c r="J63" s="15"/>
       <c r="K63" s="14"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="20"/>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -3430,233 +3408,206 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="20"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="14"/>
-    </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="20"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="14"/>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="20"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="14"/>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="20"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="14"/>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="20"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="14"/>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="20"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="14"/>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="20"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="14"/>
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="21"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="14"/>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B76" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="8">
+        <v>5</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
+      <c r="B77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="8">
+        <v>1</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>97</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N84" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O84" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P84" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L85" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N85" s="8">
-        <v>10</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P85" s="8"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L86" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N86" s="8">
-        <v>20</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P86" s="8"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B87" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="12"/>
-      <c r="L87" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N87" s="8">
-        <v>1</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P87" s="8"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B78" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84" s="20"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" s="20"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="14"/>
+      <c r="M85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86" s="20"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87" s="20"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88" s="20"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -3665,21 +3616,9 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="L88" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M88" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N88" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P88" s="8"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K88" s="14"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="20"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -3689,8 +3628,9 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K89" s="14"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
@@ -3700,8 +3640,9 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K90" s="14"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
@@ -3711,8 +3652,9 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K91" s="14"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="20"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
@@ -3724,7 +3666,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="14"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="20"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
@@ -3736,7 +3678,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="14"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="20"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
@@ -3748,7 +3690,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="14"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="20"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
@@ -3760,7 +3702,7 @@
       <c r="J95" s="15"/>
       <c r="K95" s="14"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="20"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -3773,251 +3715,176 @@
       <c r="K96" s="14"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="20"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="18"/>
       <c r="K97" s="14"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="20"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="14"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="20"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="14"/>
-    </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="20"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="14"/>
+      <c r="B100" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="20"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="14"/>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="21"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="14"/>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="14"/>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="14"/>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="20"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="14"/>
+      <c r="B106" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="20"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="14"/>
+      <c r="B107" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="20"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="14"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B109" s="20"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="14"/>
+      <c r="B108" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="20"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="14"/>
+      <c r="B110" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="20"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="14"/>
+      <c r="B111" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="8">
+        <v>10</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" s="8"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="20"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="14"/>
+      <c r="B112" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="8">
+        <v>20</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J112" s="8"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="20"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="14"/>
+      <c r="B113" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="8">
+        <v>1</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="8"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="20"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="14"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="20"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="14"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="20"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="14"/>
+      <c r="B114" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J114" s="8"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="20"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="14"/>
+      <c r="B117" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="12"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="20"/>
+      <c r="B118" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -4026,21 +3893,393 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="14"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="21"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="14"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="20"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121" s="20"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B122" s="20"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="14"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B123" s="20"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="14"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B124" s="20"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="14"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125" s="20"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="14"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B126" s="20"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="14"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="20"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="14"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="20"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="14"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="20"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="14"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="20"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="14"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="20"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="14"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B132" s="21"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="14"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B134" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="14"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B135" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="14"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B136" s="20"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="14"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B137" s="20"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="14"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B138" s="20"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="14"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B139" s="20"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="14"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B140" s="20"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="14"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B141" s="20"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="14"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B142" s="20"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="14"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="20"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="14"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="20"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="14"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B145" s="20"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="14"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146" s="20"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="14"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="20"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="14"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="20"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="14"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B149" s="21"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4053,7 +4292,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -863,6 +863,22 @@
   </si>
   <si>
     <t>문서 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 대쉬 거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 대쉬의 거리는 DashRange 를 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 대쉬는 고정된 거리만큼 이동하며 츄저를 통과함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1199,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,10 +1297,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1379,13 +1398,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1854,13 +1873,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1911,13 +1930,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1967,13 +1986,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2021,13 +2040,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2078,13 +2097,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2135,13 +2154,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2191,13 +2210,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2245,13 +2264,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2824,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M149"/>
+  <dimension ref="B2:M151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2878,13 +2897,13 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
@@ -2931,12 +2950,12 @@
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="10" t="s">
         <v>29</v>
       </c>
@@ -3130,6 +3149,22 @@
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="27">
+        <v>9</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
@@ -3458,13 +3493,13 @@
       <c r="B75" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
       <c r="H75" s="10" t="s">
         <v>29</v>
       </c>
@@ -3771,78 +3806,50 @@
         <v>97</v>
       </c>
     </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="9" t="s">
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C112" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="10" t="s">
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="I112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J112" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="8">
-        <v>10</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="8">
-        <v>20</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J112" s="8"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
       <c r="H113" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I113" s="8" t="s">
         <v>34</v>
@@ -3851,62 +3858,97 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="8">
+        <v>20</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="8">
+        <v>1</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C116" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="8">
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I114" s="8" t="s">
+      <c r="I116" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J114" s="8"/>
+      <c r="J116" s="8"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="27">
+        <v>9</v>
+      </c>
+      <c r="I117" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="12"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="13" t="s">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="12"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="15"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="20"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="15"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="20"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
@@ -3937,7 +3979,6 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="14"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B123" s="20"/>
@@ -3949,7 +3990,6 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
-      <c r="K123" s="14"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B124" s="20"/>
@@ -4048,59 +4088,59 @@
       <c r="K131" s="14"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B132" s="21"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="18"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="15"/>
       <c r="K132" s="14"/>
     </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B133" s="20"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="14"/>
+    </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="21"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="14"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B136" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="14"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B135" s="13" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="14"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B137" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="14"/>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B136" s="20"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="14"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B137" s="20"/>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
@@ -4244,34 +4284,44 @@
       <c r="K148" s="14"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B149" s="21"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="18"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="15"/>
       <c r="K149" s="14"/>
     </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B150" s="20"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="14"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B151" s="21"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
+  <mergeCells count="24">
+    <mergeCell ref="C117:G117"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -4279,6 +4329,22 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -879,6 +879,30 @@
   </si>
   <si>
     <t xml:space="preserve">  - 대쉬는 고정된 거리만큼 이동하며 츄저를 통과함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 좌우로 공격하여 이동 루트를 제한하는 단순한공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 단순하지만 넓은 약한공격으로 이동 루트를 제한하고 맞을시 조금 씩 축적된 대미지로 위험할 수 있게 유도.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 앞으로 대쉬하며 앞으로 빠르게 움직여 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 전조 동작후 앞으로 고정된 거리를 빠르게 움직여 유저에게 이동루트 두 방향을 방해 하도록 유도.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰되 몬스터는 0.5~7초 Idle상태로 대기 시간을 가짐.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1300,12 +1324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,6 +1331,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,13 +1362,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1398,13 +1422,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1458,13 +1482,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1525,13 +1549,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1582,13 +1606,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1642,13 +1666,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1699,13 +1723,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1756,13 +1780,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1816,13 +1840,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1873,13 +1897,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1930,13 +1954,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1986,13 +2010,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2040,13 +2064,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2097,13 +2121,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2154,13 +2178,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2210,13 +2234,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2264,13 +2288,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2321,13 +2345,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2843,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M151"/>
+  <dimension ref="B2:M160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2897,13 +2921,13 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
@@ -2911,13 +2935,13 @@
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
@@ -2925,13 +2949,13 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
@@ -2950,12 +2974,12 @@
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="10" t="s">
         <v>29</v>
       </c>
@@ -2972,12 +2996,12 @@
       <c r="B16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="8">
         <v>10</v>
       </c>
@@ -2992,12 +3016,12 @@
       <c r="B17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="8">
         <v>20</v>
       </c>
@@ -3012,12 +3036,12 @@
       <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -3032,12 +3056,12 @@
       <c r="B19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="8">
         <v>100</v>
       </c>
@@ -3052,12 +3076,12 @@
       <c r="B20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
@@ -3072,12 +3096,12 @@
       <c r="B21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="8">
         <v>5</v>
       </c>
@@ -3092,12 +3116,12 @@
       <c r="B22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="8">
         <v>2</v>
       </c>
@@ -3112,12 +3136,12 @@
       <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="8">
         <v>5</v>
       </c>
@@ -3132,12 +3156,12 @@
       <c r="B24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="8">
         <v>7</v>
       </c>
@@ -3152,12 +3176,12 @@
       <c r="B25" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="27">
         <v>9</v>
       </c>
@@ -3180,112 +3204,106 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="19" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
@@ -3308,7 +3326,6 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
@@ -3443,203 +3460,169 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="9" t="s">
+    <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B76" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C80" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="10" t="s">
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I80" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J80" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="8" t="s">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C81" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="8">
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="8">
         <v>5</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="8" t="s">
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C82" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="8">
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="8">
         <v>1</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I82" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="8" t="s">
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C83" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="8">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I83" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="22" t="s">
+      <c r="J83" s="8"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="12"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="20"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="20"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="20"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="14"/>
-      <c r="M85" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="20"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="14"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="20"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="14"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="12"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="20"/>
@@ -3651,7 +3634,6 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="14"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="20"/>
@@ -3663,7 +3645,6 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="14"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
@@ -3676,6 +3657,9 @@
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
       <c r="K90" s="14"/>
+      <c r="M90" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
@@ -3750,309 +3734,280 @@
       <c r="K96" s="14"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="21"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="18"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="15"/>
       <c r="K97" s="14"/>
     </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="20"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="14"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="20"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="14"/>
+    </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="20"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="20"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="14"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="21"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="14"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="9" t="s">
+    <row r="117" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B117" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C121" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="10" t="s">
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I121" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J121" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="8" t="s">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C122" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="8">
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="8">
         <v>10</v>
       </c>
-      <c r="I113" s="8" t="s">
+      <c r="I122" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="8" t="s">
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B123" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C123" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="8">
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="8">
         <v>20</v>
       </c>
-      <c r="I114" s="8" t="s">
+      <c r="I123" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="8" t="s">
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C124" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="8">
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="8">
         <v>1</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I124" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="8" t="s">
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C125" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="8">
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I125" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="27" t="s">
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C126" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="27">
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="27">
         <v>9</v>
       </c>
-      <c r="I117" s="27" t="s">
+      <c r="I126" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J117" s="4"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="22" t="s">
+      <c r="J126" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="12"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="13" t="s">
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="12"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="20"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="15"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B122" s="20"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="15"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B123" s="20"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="15"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B124" s="20"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="14"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B125" s="20"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="14"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B126" s="20"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="14"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="20"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="14"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128" s="20"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="14"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="20"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
@@ -4061,7 +4016,6 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="14"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
@@ -4073,7 +4027,6 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="14"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B131" s="20"/>
@@ -4085,7 +4038,6 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="14"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="20"/>
@@ -4097,7 +4049,6 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="14"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="20"/>
@@ -4112,35 +4063,43 @@
       <c r="K133" s="14"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B134" s="21"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="18"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="15"/>
       <c r="K134" s="14"/>
     </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B135" s="20"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="14"/>
+    </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B136" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="12"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="15"/>
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B137" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="B137" s="20"/>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
@@ -4212,43 +4171,35 @@
       <c r="K142" s="14"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="20"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="18"/>
       <c r="K143" s="14"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="20"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="14"/>
-    </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="20"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
+      <c r="B145" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="12"/>
       <c r="K145" s="14"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="20"/>
+      <c r="B146" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
@@ -4308,20 +4259,128 @@
       <c r="K150" s="14"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B151" s="21"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="18"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="15"/>
       <c r="K151" s="14"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B152" s="20"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="14"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B153" s="20"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="14"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B154" s="20"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="14"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B155" s="20"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="14"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B156" s="20"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="14"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B157" s="20"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="14"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B158" s="20"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="14"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B159" s="20"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="14"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B160" s="21"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C126:G126"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -4334,17 +4393,17 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C82:G82"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C121:G121"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - 몬스터는 스폰을 통해서 생성 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰된 몬스터는 유저를 바로 인식하고 추적함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1324,6 +1320,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,12 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1362,13 +1358,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1422,13 +1418,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1482,13 +1478,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1549,13 +1545,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1606,13 +1602,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1666,13 +1662,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1723,13 +1719,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1780,13 +1776,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1840,13 +1836,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1897,13 +1893,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1954,13 +1950,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2010,13 +2006,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2064,13 +2060,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2121,13 +2117,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2178,13 +2174,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2234,13 +2230,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2288,13 +2284,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2345,13 +2341,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2761,10 +2757,10 @@
         <v>43671</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2773,10 +2769,10 @@
         <v>43689</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -2812,7 +2808,7 @@
     </row>
     <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
@@ -2820,42 +2816,42 @@
     </row>
     <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2867,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M160"/>
+  <dimension ref="B2:M159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2898,7 +2894,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -2912,50 +2908,50 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
@@ -2965,48 +2961,48 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="8">
         <v>10</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="8"/>
       <c r="L16" s="26"/>
@@ -3014,19 +3010,19 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+        <v>87</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="8">
         <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="8"/>
       <c r="L17" s="26"/>
@@ -3034,19 +3030,19 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="8"/>
       <c r="L18" s="26"/>
@@ -3054,19 +3050,19 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="8">
         <v>100</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="4"/>
       <c r="L19" s="26"/>
@@ -3074,19 +3070,19 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+        <v>54</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="4"/>
       <c r="L20" s="26"/>
@@ -3094,19 +3090,19 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="8">
         <v>5</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="4"/>
       <c r="L21" s="26"/>
@@ -3114,19 +3110,19 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="8">
         <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="4"/>
       <c r="L22" s="26"/>
@@ -3134,19 +3130,19 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+        <v>57</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="8">
         <v>5</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="4"/>
       <c r="L23" s="26"/>
@@ -3154,19 +3150,19 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="8">
         <v>7</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" s="4"/>
       <c r="L24" s="26"/>
@@ -3174,19 +3170,19 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
+      <c r="C25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="27">
         <v>9</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" s="4"/>
       <c r="L25" s="26"/>
@@ -3204,17 +3200,17 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -3224,12 +3220,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
@@ -3244,12 +3240,12 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
@@ -3259,51 +3255,57 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>14</v>
+      <c r="B43" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="19" t="s">
         <v>74</v>
       </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
@@ -3326,6 +3328,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
@@ -3460,52 +3463,45 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="14"/>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>38</v>
+      <c r="B68" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
@@ -3513,116 +3509,122 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B76" s="25" t="s">
-        <v>113</v>
+    <row r="75" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B75" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="C80" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="8">
+        <v>5</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
       <c r="H81" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+        <v>104</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
       <c r="H82" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J83" s="8"/>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="12"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="20"/>
@@ -3645,6 +3647,10 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
+      <c r="K89" s="14"/>
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
@@ -3657,9 +3663,6 @@
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
       <c r="K90" s="14"/>
-      <c r="M90" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
@@ -3782,42 +3785,35 @@
       <c r="K100" s="14"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="20"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="18"/>
       <c r="K101" s="14"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="21"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="14"/>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="1" t="s">
-        <v>39</v>
+      <c r="B105" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
@@ -3827,12 +3823,12 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
@@ -3847,7 +3843,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
@@ -3855,14 +3851,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
-        <v>113</v>
+    <row r="116" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B116" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
@@ -3870,45 +3866,59 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>116</v>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
+      <c r="B121" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
       <c r="G121" s="32"/>
-      <c r="H121" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J121" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="H121" s="8">
+        <v>10</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" s="8"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="30"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="32"/>
       <c r="H122" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I122" s="8" t="s">
         <v>34</v>
@@ -3917,97 +3927,89 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="8">
+        <v>1</v>
+      </c>
+      <c r="I123" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="8">
-        <v>20</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="J123" s="8"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="30"/>
+        <v>104</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="32"/>
       <c r="H124" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="8" t="s">
-        <v>105</v>
+      <c r="B125" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="27">
+        <v>107</v>
+      </c>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="27">
         <v>9</v>
       </c>
-      <c r="I126" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J126" s="4"/>
+      <c r="I125" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="12"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="12"/>
+      <c r="B128" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="15"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B129" s="20"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
@@ -4049,6 +4051,7 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
+      <c r="K132" s="14"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="20"/>
@@ -4159,47 +4162,47 @@
       <c r="K141" s="14"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="20"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="15"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="18"/>
       <c r="K142" s="14"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="21"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="14"/>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="14"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="12"/>
+      <c r="B145" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="15"/>
       <c r="K145" s="14"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="B146" s="20"/>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
@@ -4355,32 +4358,28 @@
       <c r="K158" s="14"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B159" s="20"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="18"/>
       <c r="K159" s="14"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B160" s="21"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C125:G125"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -4393,17 +4392,9 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C79:G79"/>
     <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C121:G121"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4427,7 +4418,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -794,111 +794,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 휘두르기 이펙트는 반원 안에 선이 나오는 이펙트를 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 휘두르기 이펙트는 스킬1에서만 사용되며 공격과 함께 켜지고 공격이 끝나면 꺼짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 찌르기 이펙트는 무기 앞에서 출력됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 찌르기 이펙트는 준비모션후 찌르기 모션이 시작될때 같이 출력됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이펙트는 무기에 고정시켜 출력함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하기 얼마전에 이펙트를 출력할지 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 총 모션 시간 1.5~2초 [애니메이터와 추가 협의 할것]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 전조 동작 전부터 땅에 범위 이펙트를 표시해주고 전조 동작후 공격함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 전조 동작을 통해 공격을 알리고 공격을 하며 전조동작을 통해 공격을 인식시키고 회피를 가능하게함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬을 사용하는 도중에 피격 당할 시 히트모션을 출력하고 스킬을 캔슬함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터의 HP가 0이하가 될시  사망모션을 출력함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 공격거리 안에 유저가 있을 시 스킬을 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkEffectDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 공격 범위 이펙트는 공격 모션 전에 먼저 사용되면 AtkEffectDelay값만큼 먼서 사용된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 대쉬 거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 대쉬의 거리는 DashRange 를 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 좌우로 공격하여 이동 루트를 제한하는 단순한공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 단순하지만 넓은 약한공격으로 이동 루트를 제한하고 맞을시 조금 씩 축적된 대미지로 위험할 수 있게 유도.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 앞으로 대쉬하며 앞으로 빠르게 움직여 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 전조 동작후 앞으로 고정된 거리를 빠르게 움직여 유저에게 이동루트 두 방향을 방해 하도록 유도.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰되 몬스터는 0.5~7초 Idle상태로 대기 시간을 가짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 대쉬는 고정된 거리만큼 이동하며 유저를 통과함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  - 스킬1의 사거리 안이라도 스킬2의 쿨타임이 0라면 스킬2사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 휘두르기 이펙트는 반원 안에 선이 나오는 이펙트를 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 휘두르기 이펙트는 스킬1에서만 사용되며 공격과 함께 켜지고 공격이 끝나면 꺼짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 찌르기 이펙트는 무기 앞에서 출력됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 찌르기 이펙트는 준비모션후 찌르기 모션이 시작될때 같이 출력됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 이펙트는 무기에 고정시켜 출력함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격하기 얼마전에 이펙트를 출력할지 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 총 모션 시간 1.5~2초 [애니메이터와 추가 협의 할것]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 전조 동작 전부터 땅에 범위 이펙트를 표시해주고 전조 동작후 공격함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 전조 동작을 통해 공격을 알리고 공격을 하며 전조동작을 통해 공격을 인식시키고 회피를 가능하게함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스킬을 사용하는 도중에 피격 당할 시 히트모션을 출력하고 스킬을 캔슬함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터의 HP가 0이하가 될시  사망모션을 출력함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 공격거리 안에 유저가 있을 시 스킬을 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkEffectDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 공격 범위 이펙트는 공격 모션 전에 먼저 사용되면 AtkEffectDelay값만큼 먼서 사용된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 대쉬 거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DashRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 대쉬의 거리는 DashRange 를 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 대쉬는 고정된 거리만큼 이동하며 츄저를 통과함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 좌우로 공격하여 이동 루트를 제한하는 단순한공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 단순하지만 넓은 약한공격으로 이동 루트를 제한하고 맞을시 조금 씩 축적된 대미지로 위험할 수 있게 유도.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 앞으로 대쉬하며 앞으로 빠르게 움직여 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 전조 동작후 앞으로 고정된 거리를 빠르게 움직여 유저에게 이동루트 두 방향을 방해 하도록 유도.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰되 몬스터는 0.5~7초 Idle상태로 대기 시간을 가짐.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2402,18 +2402,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>417075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99534</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208163</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>168400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2426,17 +2426,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="561975"/>
-          <a:ext cx="3817500" cy="4900134"/>
+          <a:off x="476250" y="523875"/>
+          <a:ext cx="4294388" cy="7940800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2772,7 +2767,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -2851,7 +2846,7 @@
     </row>
     <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2865,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" activeCellId="1" sqref="B44 L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3170,10 +3165,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -3200,7 +3195,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -3245,17 +3240,17 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
@@ -3270,12 +3265,12 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -3486,7 +3481,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
@@ -3496,32 +3491,32 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B75" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
@@ -3585,10 +3580,10 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
@@ -3808,7 +3803,7 @@
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
@@ -3828,42 +3823,42 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B116" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
@@ -3946,10 +3941,10 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
@@ -3965,10 +3960,10 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28"/>
@@ -4407,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_드림 캐쳐(가명).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -818,10 +818,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격하기 얼마전에 이펙트를 출력할지 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 총 모션 시간 1.5~2초 [애니메이터와 추가 협의 할것]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -899,6 +895,14 @@
   </si>
   <si>
     <t xml:space="preserve">  - 스킬1의 사거리 안이라도 스킬2의 쿨타임이 0라면 스킬2사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하기 얼마전에 범위 이펙트를 출력할지 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하기 얼마전에 범위 이펙트를 출력할지 시간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1320,12 +1324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,6 +1331,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2704,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2767,7 +2771,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -2860,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" activeCellId="1" sqref="B44 L50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124:G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2912,13 +2916,13 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
@@ -2926,13 +2930,13 @@
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
@@ -2940,13 +2944,13 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
@@ -2965,12 +2969,12 @@
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="10" t="s">
         <v>28</v>
       </c>
@@ -2987,12 +2991,12 @@
       <c r="B16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="8">
         <v>10</v>
       </c>
@@ -3007,12 +3011,12 @@
       <c r="B17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="8">
         <v>20</v>
       </c>
@@ -3027,12 +3031,12 @@
       <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -3047,12 +3051,12 @@
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="8">
         <v>100</v>
       </c>
@@ -3067,12 +3071,12 @@
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
@@ -3087,12 +3091,12 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="8">
         <v>5</v>
       </c>
@@ -3107,12 +3111,12 @@
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="8">
         <v>2</v>
       </c>
@@ -3127,12 +3131,12 @@
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="8">
         <v>5</v>
       </c>
@@ -3147,12 +3151,12 @@
       <c r="B24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="8">
         <v>7</v>
       </c>
@@ -3165,14 +3169,14 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="C25" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="27">
         <v>9</v>
       </c>
@@ -3195,7 +3199,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -3240,17 +3244,17 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
@@ -3265,12 +3269,12 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -3481,7 +3485,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
@@ -3491,7 +3495,7 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
@@ -3506,30 +3510,30 @@
     </row>
     <row r="75" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B75" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
       <c r="H79" s="10" t="s">
         <v>28</v>
       </c>
@@ -3544,13 +3548,13 @@
       <c r="B80" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
       <c r="H80" s="8">
         <v>5</v>
       </c>
@@ -3563,13 +3567,13 @@
       <c r="B81" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
       <c r="H81" s="8">
         <v>1</v>
       </c>
@@ -3580,15 +3584,15 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
       <c r="H82" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3803,7 +3807,7 @@
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
@@ -3838,40 +3842,40 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B116" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
       <c r="H120" s="10" t="s">
         <v>28</v>
       </c>
@@ -3886,13 +3890,13 @@
       <c r="B121" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="32"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="30"/>
       <c r="H121" s="8">
         <v>10</v>
       </c>
@@ -3905,13 +3909,13 @@
       <c r="B122" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="32"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="30"/>
       <c r="H122" s="8">
         <v>20</v>
       </c>
@@ -3924,13 +3928,13 @@
       <c r="B123" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="32"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="30"/>
       <c r="H123" s="8">
         <v>1</v>
       </c>
@@ -3941,15 +3945,15 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="30"/>
       <c r="H124" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3960,15 +3964,15 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C125" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
+      <c r="C125" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
       <c r="H125" s="27">
         <v>9</v>
       </c>
@@ -4366,14 +4370,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C120:G120"/>
     <mergeCell ref="C125:G125"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
@@ -4390,6 +4386,14 @@
     <mergeCell ref="C124:G124"/>
     <mergeCell ref="C79:G79"/>
     <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C120:G120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
